--- a/biology/Zoologie/Anolis_pentaprion/Anolis_pentaprion.xlsx
+++ b/biology/Zoologie/Anolis_pentaprion/Anolis_pentaprion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis pentaprion est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis pentaprion est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Panama, au Costa Rica, au Nicaragua, au Honduras, au Guatemala, au Belize et au Mexique au Veracruz, au Yucatán, au Campeche et au Chiapas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Panama, au Costa Rica, au Nicaragua, au Honduras, au Guatemala, au Belize et au Mexique au Veracruz, au Yucatán, au Campeche et au Chiapas.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1863 "1862" : Contributions to Neotropical saurology. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 176-188 (texte intégral).</t>
         </is>
